--- a/fd-comapre_graph_beta.xlsx
+++ b/fd-comapre_graph_beta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,12 +386,15 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.38668497372884864"/>
-                      <c:h val="0.23056769444285732"/>
-                    </c:manualLayout>
-                  </c15:layout>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -533,11 +536,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="196705216"/>
-        <c:axId val="196705776"/>
+        <c:axId val="119713616"/>
+        <c:axId val="197011824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196705216"/>
+        <c:axId val="119713616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,7 +550,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196705776"/>
+        <c:crossAx val="197011824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -555,7 +558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196705776"/>
+        <c:axId val="197011824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -565,7 +568,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196705216"/>
+        <c:crossAx val="119713616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -837,6 +840,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -884,11 +888,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198168016"/>
-        <c:axId val="198168576"/>
+        <c:axId val="198394432"/>
+        <c:axId val="198394992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198168016"/>
+        <c:axId val="198394432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +902,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198168576"/>
+        <c:crossAx val="198394992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -906,7 +910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198168576"/>
+        <c:axId val="198394992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,7 +920,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198168016"/>
+        <c:crossAx val="198394432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1188,6 +1192,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1235,11 +1240,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198170816"/>
-        <c:axId val="198171376"/>
+        <c:axId val="198397232"/>
+        <c:axId val="198397792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198170816"/>
+        <c:axId val="198397232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1249,7 +1254,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198171376"/>
+        <c:crossAx val="198397792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1257,7 +1262,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198171376"/>
+        <c:axId val="198397792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1272,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198170816"/>
+        <c:crossAx val="198397232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1539,6 +1544,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1586,11 +1592,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198927552"/>
-        <c:axId val="198928112"/>
+        <c:axId val="198400032"/>
+        <c:axId val="198400592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198927552"/>
+        <c:axId val="198400032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,7 +1606,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198928112"/>
+        <c:crossAx val="198400592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1608,7 +1614,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198928112"/>
+        <c:axId val="198400592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1618,7 +1624,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198927552"/>
+        <c:crossAx val="198400032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1890,6 +1896,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1937,11 +1944,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198930352"/>
-        <c:axId val="198930912"/>
+        <c:axId val="198423120"/>
+        <c:axId val="198424240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198930352"/>
+        <c:axId val="198423120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +1958,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198930912"/>
+        <c:crossAx val="198424240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1959,7 +1966,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198930912"/>
+        <c:axId val="198424240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +1976,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198930352"/>
+        <c:crossAx val="198423120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2241,6 +2248,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2288,11 +2296,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198933152"/>
-        <c:axId val="198754320"/>
+        <c:axId val="198426480"/>
+        <c:axId val="198427040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198933152"/>
+        <c:axId val="198426480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2302,7 +2310,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198754320"/>
+        <c:crossAx val="198427040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2310,7 +2318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198754320"/>
+        <c:axId val="198427040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2320,7 +2328,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198933152"/>
+        <c:crossAx val="198426480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2528,26 +2536,6 @@
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.24794115399015174"/>
-                      <c:h val="0.17814164311174027"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
@@ -2656,11 +2644,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198756560"/>
-        <c:axId val="198757120"/>
+        <c:axId val="198429280"/>
+        <c:axId val="199009360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198756560"/>
+        <c:axId val="198429280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,7 +2658,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198757120"/>
+        <c:crossAx val="199009360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2678,7 +2666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198757120"/>
+        <c:axId val="199009360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2688,7 +2676,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198756560"/>
+        <c:crossAx val="198429280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2876,11 +2864,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198759360"/>
-        <c:axId val="198759920"/>
+        <c:axId val="199011600"/>
+        <c:axId val="199012160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198759360"/>
+        <c:axId val="199011600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2890,7 +2878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198759920"/>
+        <c:crossAx val="199012160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2898,7 +2886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198759920"/>
+        <c:axId val="199012160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2908,7 +2896,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198759360"/>
+        <c:crossAx val="199011600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3226,26 +3214,6 @@
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:dLblPos val="outEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.23807740989940715"/>
-                      <c:h val="0.17710288299769414"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
@@ -3354,11 +3322,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198917136"/>
-        <c:axId val="198917696"/>
+        <c:axId val="199014400"/>
+        <c:axId val="199014960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198917136"/>
+        <c:axId val="199014400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3368,7 +3336,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198917696"/>
+        <c:crossAx val="199014960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3376,7 +3344,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198917696"/>
+        <c:axId val="199014960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,7 +3354,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198917136"/>
+        <c:crossAx val="199014400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3658,6 +3626,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3705,11 +3674,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198919936"/>
-        <c:axId val="198920496"/>
+        <c:axId val="199070800"/>
+        <c:axId val="199071360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198919936"/>
+        <c:axId val="199070800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3719,7 +3688,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198920496"/>
+        <c:crossAx val="199071360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3727,7 +3696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198920496"/>
+        <c:axId val="199071360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3737,7 +3706,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198919936"/>
+        <c:crossAx val="199070800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4009,6 +3978,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4056,11 +4026,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198922736"/>
-        <c:axId val="198923296"/>
+        <c:axId val="199073600"/>
+        <c:axId val="199074160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198922736"/>
+        <c:axId val="199073600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4070,7 +4040,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198923296"/>
+        <c:crossAx val="199074160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4078,7 +4048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198923296"/>
+        <c:axId val="199074160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4088,7 +4058,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198922736"/>
+        <c:crossAx val="199073600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4361,6 +4331,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4408,11 +4379,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="196708016"/>
-        <c:axId val="196708576"/>
+        <c:axId val="197014064"/>
+        <c:axId val="197014624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196708016"/>
+        <c:axId val="197014064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4422,7 +4393,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196708576"/>
+        <c:crossAx val="197014624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4430,7 +4401,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196708576"/>
+        <c:axId val="197014624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4440,7 +4411,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196708016"/>
+        <c:crossAx val="197014064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4712,6 +4683,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4759,11 +4731,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="199640912"/>
-        <c:axId val="199641472"/>
+        <c:axId val="199076400"/>
+        <c:axId val="199076960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199640912"/>
+        <c:axId val="199076400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4773,7 +4745,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199641472"/>
+        <c:crossAx val="199076960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4781,7 +4753,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199641472"/>
+        <c:axId val="199076960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4791,7 +4763,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199640912"/>
+        <c:crossAx val="199076400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5063,6 +5035,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5110,11 +5083,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="199643712"/>
-        <c:axId val="199644272"/>
+        <c:axId val="199261344"/>
+        <c:axId val="199261904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199643712"/>
+        <c:axId val="199261344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5124,7 +5097,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199644272"/>
+        <c:crossAx val="199261904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5132,7 +5105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199644272"/>
+        <c:axId val="199261904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5142,7 +5115,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199643712"/>
+        <c:crossAx val="199261344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5414,6 +5387,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5461,11 +5435,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="199646512"/>
-        <c:axId val="199647072"/>
+        <c:axId val="199264144"/>
+        <c:axId val="199264704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199646512"/>
+        <c:axId val="199264144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5475,7 +5449,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199647072"/>
+        <c:crossAx val="199264704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5483,7 +5457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199647072"/>
+        <c:axId val="199264704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5493,7 +5467,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199646512"/>
+        <c:crossAx val="199264144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5765,6 +5739,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5812,11 +5787,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="199788960"/>
-        <c:axId val="199789520"/>
+        <c:axId val="199266944"/>
+        <c:axId val="199267504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199788960"/>
+        <c:axId val="199266944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5826,7 +5801,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199789520"/>
+        <c:crossAx val="199267504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5834,7 +5809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199789520"/>
+        <c:axId val="199267504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5844,7 +5819,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199788960"/>
+        <c:crossAx val="199266944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6032,11 +6007,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199791760"/>
-        <c:axId val="199792320"/>
+        <c:axId val="199512624"/>
+        <c:axId val="199513184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199791760"/>
+        <c:axId val="199512624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6046,7 +6021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199792320"/>
+        <c:crossAx val="199513184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6054,7 +6029,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199792320"/>
+        <c:axId val="199513184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6064,7 +6039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199791760"/>
+        <c:crossAx val="199512624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6583,11 +6558,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="199795120"/>
-        <c:axId val="199866720"/>
+        <c:axId val="199515984"/>
+        <c:axId val="199516544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199795120"/>
+        <c:axId val="199515984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6597,7 +6572,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199866720"/>
+        <c:crossAx val="199516544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6605,7 +6580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199866720"/>
+        <c:axId val="199516544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6615,7 +6590,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199795120"/>
+        <c:crossAx val="199515984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6936,11 +6911,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="199868960"/>
-        <c:axId val="199869520"/>
+        <c:axId val="199518784"/>
+        <c:axId val="200212240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199868960"/>
+        <c:axId val="199518784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6950,7 +6925,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199869520"/>
+        <c:crossAx val="200212240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6958,7 +6933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199869520"/>
+        <c:axId val="200212240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6968,7 +6943,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199868960"/>
+        <c:crossAx val="199518784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7237,7 +7212,7 @@
                   <c:v>0.35533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61333333333333329</c:v>
+                  <c:v>1.3333333333333334E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7253,11 +7228,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="199871760"/>
-        <c:axId val="199872320"/>
+        <c:axId val="200214480"/>
+        <c:axId val="200215040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199871760"/>
+        <c:axId val="200214480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7267,7 +7242,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199872320"/>
+        <c:crossAx val="200215040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7275,7 +7250,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199872320"/>
+        <c:axId val="200215040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7285,7 +7260,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199871760"/>
+        <c:crossAx val="200214480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7605,11 +7580,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="200111456"/>
-        <c:axId val="200112016"/>
+        <c:axId val="200217280"/>
+        <c:axId val="200217840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200111456"/>
+        <c:axId val="200217280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7619,7 +7594,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200112016"/>
+        <c:crossAx val="200217840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7627,7 +7602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200112016"/>
+        <c:axId val="200217840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7637,7 +7612,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200111456"/>
+        <c:crossAx val="200217280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7957,11 +7932,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="200114256"/>
-        <c:axId val="200114816"/>
+        <c:axId val="200040176"/>
+        <c:axId val="200040736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200114256"/>
+        <c:axId val="200040176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7971,7 +7946,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200114816"/>
+        <c:crossAx val="200040736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7979,7 +7954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200114816"/>
+        <c:axId val="200040736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7989,7 +7964,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200114256"/>
+        <c:crossAx val="200040176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8079,6 +8054,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8188,25 +8164,6 @@
             </c:spPr>
           </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.27136417556346376"/>
-                      <c:h val="0.22803652968036531"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -8245,6 +8202,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8275,7 +8233,7 @@
                   <c:v>0.35533333333333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61333333333333329</c:v>
+                  <c:v>1.3333333333333334E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8291,11 +8249,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="197725472"/>
-        <c:axId val="197726032"/>
+        <c:axId val="197016864"/>
+        <c:axId val="197017424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197725472"/>
+        <c:axId val="197016864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8305,7 +8263,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197726032"/>
+        <c:crossAx val="197017424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8313,7 +8271,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197726032"/>
+        <c:axId val="197017424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8323,7 +8281,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197725472"/>
+        <c:crossAx val="197016864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8643,11 +8601,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="200117056"/>
-        <c:axId val="200117616"/>
+        <c:axId val="200042976"/>
+        <c:axId val="200043536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200117056"/>
+        <c:axId val="200042976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8657,7 +8615,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200117616"/>
+        <c:crossAx val="200043536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8665,7 +8623,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200117616"/>
+        <c:axId val="200043536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8675,7 +8633,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200117056"/>
+        <c:crossAx val="200042976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8995,11 +8953,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="200402832"/>
-        <c:axId val="200403392"/>
+        <c:axId val="200045776"/>
+        <c:axId val="200046336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200402832"/>
+        <c:axId val="200045776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9009,7 +8967,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200403392"/>
+        <c:crossAx val="200046336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9017,7 +8975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200403392"/>
+        <c:axId val="200046336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9027,7 +8985,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200402832"/>
+        <c:crossAx val="200045776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9215,11 +9173,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="200405632"/>
-        <c:axId val="200406192"/>
+        <c:axId val="200572240"/>
+        <c:axId val="200572800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200405632"/>
+        <c:axId val="200572240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9229,7 +9187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200406192"/>
+        <c:crossAx val="200572800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9237,7 +9195,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200406192"/>
+        <c:axId val="200572800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9247,7 +9205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200405632"/>
+        <c:crossAx val="200572240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9629,7 +9587,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9677,11 +9634,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="200408432"/>
-        <c:axId val="200408992"/>
+        <c:axId val="200575040"/>
+        <c:axId val="200575600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200408432"/>
+        <c:axId val="200575040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9691,7 +9648,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200408992"/>
+        <c:crossAx val="200575600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9699,7 +9656,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200408992"/>
+        <c:axId val="200575600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9709,7 +9666,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200408432"/>
+        <c:crossAx val="200575040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9981,7 +9938,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10029,11 +9985,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="200451760"/>
-        <c:axId val="200452320"/>
+        <c:axId val="200577840"/>
+        <c:axId val="200578400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200451760"/>
+        <c:axId val="200577840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10043,7 +9999,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200452320"/>
+        <c:crossAx val="200578400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10051,7 +10007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200452320"/>
+        <c:axId val="200578400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10061,7 +10017,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200451760"/>
+        <c:crossAx val="200577840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10333,7 +10289,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10381,11 +10336,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="200454560"/>
-        <c:axId val="200455120"/>
+        <c:axId val="201121696"/>
+        <c:axId val="201122256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200454560"/>
+        <c:axId val="201121696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10395,7 +10350,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200455120"/>
+        <c:crossAx val="201122256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10403,7 +10358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200455120"/>
+        <c:axId val="201122256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10413,7 +10368,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200454560"/>
+        <c:crossAx val="201121696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10685,7 +10640,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10733,11 +10687,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="200457360"/>
-        <c:axId val="200457920"/>
+        <c:axId val="200882992"/>
+        <c:axId val="200883552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200457360"/>
+        <c:axId val="200882992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10747,7 +10701,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200457920"/>
+        <c:crossAx val="200883552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10755,7 +10709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200457920"/>
+        <c:axId val="200883552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10765,7 +10719,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200457360"/>
+        <c:crossAx val="200882992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11037,7 +10991,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11085,11 +11038,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="201151792"/>
-        <c:axId val="201152352"/>
+        <c:axId val="200885792"/>
+        <c:axId val="200886352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201151792"/>
+        <c:axId val="200885792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11099,7 +11052,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201152352"/>
+        <c:crossAx val="200886352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11107,7 +11060,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201152352"/>
+        <c:axId val="200886352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11117,7 +11070,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201151792"/>
+        <c:crossAx val="200885792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11389,7 +11342,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11437,11 +11389,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="201154592"/>
-        <c:axId val="201155152"/>
+        <c:axId val="200888592"/>
+        <c:axId val="200889152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201154592"/>
+        <c:axId val="200888592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11451,7 +11403,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201155152"/>
+        <c:crossAx val="200889152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11459,7 +11411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201155152"/>
+        <c:axId val="200889152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11469,7 +11421,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201154592"/>
+        <c:crossAx val="200888592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11849,11 +11801,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="201157392"/>
-        <c:axId val="201641696"/>
+        <c:axId val="201219440"/>
+        <c:axId val="201220000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201157392"/>
+        <c:axId val="201219440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11863,7 +11815,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201641696"/>
+        <c:crossAx val="201220000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11871,7 +11823,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201641696"/>
+        <c:axId val="201220000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11881,7 +11833,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201157392"/>
+        <c:crossAx val="201219440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12153,6 +12105,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -12200,11 +12153,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197728272"/>
-        <c:axId val="197728832"/>
+        <c:axId val="197618816"/>
+        <c:axId val="197619376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197728272"/>
+        <c:axId val="197618816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12214,7 +12167,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197728832"/>
+        <c:crossAx val="197619376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12222,7 +12175,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197728832"/>
+        <c:axId val="197619376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12232,7 +12185,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197728272"/>
+        <c:crossAx val="197618816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12420,11 +12373,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="201643936"/>
-        <c:axId val="201644496"/>
+        <c:axId val="201222240"/>
+        <c:axId val="201222800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201643936"/>
+        <c:axId val="201222240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12434,7 +12387,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201644496"/>
+        <c:crossAx val="201222800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12442,7 +12395,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201644496"/>
+        <c:axId val="201222800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12452,7 +12405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201643936"/>
+        <c:crossAx val="201222240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12933,11 +12886,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="201646736"/>
-        <c:axId val="201647296"/>
+        <c:axId val="201225040"/>
+        <c:axId val="201225600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201646736"/>
+        <c:axId val="201225040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12947,7 +12900,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201647296"/>
+        <c:crossAx val="201225600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12955,7 +12908,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201647296"/>
+        <c:axId val="201225600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12965,7 +12918,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201646736"/>
+        <c:crossAx val="201225040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13237,7 +13190,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13285,11 +13237,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197015680"/>
-        <c:axId val="197016240"/>
+        <c:axId val="200679296"/>
+        <c:axId val="200679856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197015680"/>
+        <c:axId val="200679296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13299,7 +13251,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197016240"/>
+        <c:crossAx val="200679856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13307,7 +13259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197016240"/>
+        <c:axId val="200679856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13317,7 +13269,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197015680"/>
+        <c:crossAx val="200679296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13589,7 +13541,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13637,11 +13588,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197018480"/>
-        <c:axId val="197019040"/>
+        <c:axId val="200682096"/>
+        <c:axId val="200682656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197018480"/>
+        <c:axId val="200682096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13651,7 +13602,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197019040"/>
+        <c:crossAx val="200682656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13659,7 +13610,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197019040"/>
+        <c:axId val="200682656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13669,7 +13620,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197018480"/>
+        <c:crossAx val="200682096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13941,7 +13892,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13989,11 +13939,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197021280"/>
-        <c:axId val="197021840"/>
+        <c:axId val="200684896"/>
+        <c:axId val="200685456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197021280"/>
+        <c:axId val="200684896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14003,7 +13953,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197021840"/>
+        <c:crossAx val="200685456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14011,7 +13961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197021840"/>
+        <c:axId val="200685456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14021,7 +13971,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197021280"/>
+        <c:crossAx val="200684896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14293,7 +14243,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14341,11 +14290,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197024080"/>
-        <c:axId val="197024640"/>
+        <c:axId val="200687696"/>
+        <c:axId val="200688256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197024080"/>
+        <c:axId val="200687696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14355,7 +14304,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197024640"/>
+        <c:crossAx val="200688256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14363,7 +14312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197024640"/>
+        <c:axId val="200688256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14373,7 +14322,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197024080"/>
+        <c:crossAx val="200687696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14645,7 +14594,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14693,11 +14641,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197026880"/>
-        <c:axId val="197027440"/>
+        <c:axId val="200690496"/>
+        <c:axId val="200691056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197026880"/>
+        <c:axId val="200690496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14707,7 +14655,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197027440"/>
+        <c:crossAx val="200691056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14715,7 +14663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197027440"/>
+        <c:axId val="200691056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14725,7 +14673,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197026880"/>
+        <c:crossAx val="200690496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14997,7 +14945,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15045,11 +14992,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197029680"/>
-        <c:axId val="197030240"/>
+        <c:axId val="200693296"/>
+        <c:axId val="200693856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197029680"/>
+        <c:axId val="200693296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15059,7 +15006,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197030240"/>
+        <c:crossAx val="200693856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15067,7 +15014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197030240"/>
+        <c:axId val="200693856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15077,7 +15024,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197029680"/>
+        <c:crossAx val="200693296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15265,11 +15212,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="202146096"/>
-        <c:axId val="202146656"/>
+        <c:axId val="201998832"/>
+        <c:axId val="201999392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="202146096"/>
+        <c:axId val="201998832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15279,7 +15226,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202146656"/>
+        <c:crossAx val="201999392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15287,7 +15234,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202146656"/>
+        <c:axId val="201999392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15297,7 +15244,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202146096"/>
+        <c:crossAx val="201998832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15679,6 +15626,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15726,11 +15674,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197731072"/>
-        <c:axId val="197731632"/>
+        <c:axId val="197621616"/>
+        <c:axId val="197622176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197731072"/>
+        <c:axId val="197621616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15740,7 +15688,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197731632"/>
+        <c:crossAx val="197622176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15748,7 +15696,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197731632"/>
+        <c:axId val="197622176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15758,7 +15706,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197731072"/>
+        <c:crossAx val="197621616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16030,6 +15978,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16077,11 +16026,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197961392"/>
-        <c:axId val="197961952"/>
+        <c:axId val="197624416"/>
+        <c:axId val="197624976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197961392"/>
+        <c:axId val="197624416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16091,7 +16040,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197961952"/>
+        <c:crossAx val="197624976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16099,7 +16048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197961952"/>
+        <c:axId val="197624976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16109,7 +16058,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197961392"/>
+        <c:crossAx val="197624416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16381,6 +16330,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -16428,11 +16378,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197964192"/>
-        <c:axId val="197964752"/>
+        <c:axId val="197857664"/>
+        <c:axId val="197858224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197964192"/>
+        <c:axId val="197857664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16442,7 +16392,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197964752"/>
+        <c:crossAx val="197858224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16450,7 +16400,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197964752"/>
+        <c:axId val="197858224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16460,7 +16410,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197964192"/>
+        <c:crossAx val="197857664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16648,11 +16598,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197966992"/>
-        <c:axId val="197967552"/>
+        <c:axId val="197860464"/>
+        <c:axId val="197861024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197966992"/>
+        <c:axId val="197860464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16662,7 +16612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197967552"/>
+        <c:crossAx val="197861024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16670,7 +16620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197967552"/>
+        <c:axId val="197861024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16680,7 +16630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197966992"/>
+        <c:crossAx val="197860464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17062,6 +17012,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17109,11 +17060,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198165216"/>
-        <c:axId val="198165776"/>
+        <c:axId val="197863264"/>
+        <c:axId val="197863824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198165216"/>
+        <c:axId val="197863264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17123,7 +17074,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198165776"/>
+        <c:crossAx val="197863824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17131,7 +17082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198165776"/>
+        <c:axId val="197863824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17141,7 +17092,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198165216"/>
+        <c:crossAx val="197863264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -57489,8 +57440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView topLeftCell="D120" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I126" sqref="I126"/>
+    <sheetView tabSelected="1" topLeftCell="D87" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K66" sqref="K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -60883,7 +60834,7 @@
         <v>0.77</v>
       </c>
       <c r="K66">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L66">
         <v>1.47</v>
@@ -61809,7 +61760,7 @@
       </c>
       <c r="K79" s="3">
         <f t="shared" ref="K79" si="5">AVERAGE(K64:K78)</f>
-        <v>0.61333333333333329</v>
+        <v>1.3333333333333334E-2</v>
       </c>
       <c r="L79" s="3">
         <f t="shared" ref="L79" si="6">AVERAGE(L64:L78)</f>
@@ -61895,7 +61846,7 @@
       </c>
       <c r="K80" s="1">
         <f t="shared" si="18"/>
-        <v>9.1999999999999993</v>
+        <v>0.2</v>
       </c>
       <c r="L80" s="1">
         <f t="shared" si="18"/>
@@ -64342,7 +64293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/fd-comapre_graph_beta.xlsx
+++ b/fd-comapre_graph_beta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,11 +512,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="114610784"/>
-        <c:axId val="114611344"/>
+        <c:axId val="203196544"/>
+        <c:axId val="203197104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="114610784"/>
+        <c:axId val="203196544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +526,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114611344"/>
+        <c:crossAx val="203197104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -534,7 +534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114611344"/>
+        <c:axId val="203197104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +544,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114610784"/>
+        <c:crossAx val="203196544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -863,11 +863,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197720816"/>
-        <c:axId val="197721376"/>
+        <c:axId val="204773520"/>
+        <c:axId val="204774080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197720816"/>
+        <c:axId val="204773520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,7 +877,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197721376"/>
+        <c:crossAx val="204774080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -885,7 +885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197721376"/>
+        <c:axId val="204774080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +895,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197720816"/>
+        <c:crossAx val="204773520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1214,11 +1214,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197723616"/>
-        <c:axId val="197724176"/>
+        <c:axId val="204776320"/>
+        <c:axId val="204776880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197723616"/>
+        <c:axId val="204776320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1228,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197724176"/>
+        <c:crossAx val="204776880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1236,7 +1236,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197724176"/>
+        <c:axId val="204776880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1246,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197723616"/>
+        <c:crossAx val="204776320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1565,11 +1565,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198224688"/>
-        <c:axId val="198225248"/>
+        <c:axId val="204670864"/>
+        <c:axId val="204671424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198224688"/>
+        <c:axId val="204670864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1579,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198225248"/>
+        <c:crossAx val="204671424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1587,7 +1587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198225248"/>
+        <c:axId val="204671424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1597,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198224688"/>
+        <c:crossAx val="204670864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1916,11 +1916,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198227488"/>
-        <c:axId val="198228048"/>
+        <c:axId val="204673664"/>
+        <c:axId val="204674224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198227488"/>
+        <c:axId val="204673664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +1930,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198228048"/>
+        <c:crossAx val="204674224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1938,7 +1938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198228048"/>
+        <c:axId val="204674224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,7 +1948,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198227488"/>
+        <c:crossAx val="204673664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2267,11 +2267,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198230288"/>
-        <c:axId val="198230848"/>
+        <c:axId val="204676464"/>
+        <c:axId val="204677024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198230288"/>
+        <c:axId val="204676464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,7 +2281,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198230848"/>
+        <c:crossAx val="204677024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2289,7 +2289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198230848"/>
+        <c:axId val="204677024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,7 +2299,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198230288"/>
+        <c:crossAx val="204676464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2615,11 +2615,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198894624"/>
-        <c:axId val="198895184"/>
+        <c:axId val="204975552"/>
+        <c:axId val="204976112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198894624"/>
+        <c:axId val="204975552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,7 +2629,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198895184"/>
+        <c:crossAx val="204976112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2637,7 +2637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198895184"/>
+        <c:axId val="204976112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,7 +2647,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198894624"/>
+        <c:crossAx val="204975552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2835,11 +2835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="198967264"/>
-        <c:axId val="198967824"/>
+        <c:axId val="205409824"/>
+        <c:axId val="205410384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198967264"/>
+        <c:axId val="205409824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2849,7 +2849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198967824"/>
+        <c:crossAx val="205410384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2857,7 +2857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198967824"/>
+        <c:axId val="205410384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2867,7 +2867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198967264"/>
+        <c:crossAx val="205409824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3293,11 +3293,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198970064"/>
-        <c:axId val="198970624"/>
+        <c:axId val="205412624"/>
+        <c:axId val="205413184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198970064"/>
+        <c:axId val="205412624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3307,7 +3307,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198970624"/>
+        <c:crossAx val="205413184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3315,7 +3315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198970624"/>
+        <c:axId val="205413184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3325,7 +3325,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198970064"/>
+        <c:crossAx val="205412624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3644,11 +3644,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198972864"/>
-        <c:axId val="198973424"/>
+        <c:axId val="205415424"/>
+        <c:axId val="205415984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198972864"/>
+        <c:axId val="205415424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3658,7 +3658,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198973424"/>
+        <c:crossAx val="205415984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3666,7 +3666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198973424"/>
+        <c:axId val="205415984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3676,7 +3676,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198972864"/>
+        <c:crossAx val="205415424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3995,11 +3995,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198811136"/>
-        <c:axId val="198811696"/>
+        <c:axId val="205197872"/>
+        <c:axId val="205198432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198811136"/>
+        <c:axId val="205197872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4009,7 +4009,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198811696"/>
+        <c:crossAx val="205198432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4017,7 +4017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198811696"/>
+        <c:axId val="205198432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4027,7 +4027,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198811136"/>
+        <c:crossAx val="205197872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4347,11 +4347,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197086224"/>
-        <c:axId val="197086784"/>
+        <c:axId val="203199344"/>
+        <c:axId val="203199904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197086224"/>
+        <c:axId val="203199344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4361,7 +4361,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197086784"/>
+        <c:crossAx val="203199904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4369,7 +4369,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197086784"/>
+        <c:axId val="203199904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4379,7 +4379,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197086224"/>
+        <c:crossAx val="203199344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4698,11 +4698,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198813936"/>
-        <c:axId val="198814496"/>
+        <c:axId val="205200672"/>
+        <c:axId val="205201232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198813936"/>
+        <c:axId val="205200672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4712,7 +4712,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198814496"/>
+        <c:crossAx val="205201232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4720,7 +4720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198814496"/>
+        <c:axId val="205201232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4730,7 +4730,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198813936"/>
+        <c:crossAx val="205200672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5049,11 +5049,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="198816736"/>
-        <c:axId val="198817296"/>
+        <c:axId val="205203472"/>
+        <c:axId val="205204032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198816736"/>
+        <c:axId val="205203472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5063,7 +5063,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198817296"/>
+        <c:crossAx val="205204032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5071,7 +5071,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198817296"/>
+        <c:axId val="205204032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5081,7 +5081,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198816736"/>
+        <c:crossAx val="205203472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5400,11 +5400,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="199168080"/>
-        <c:axId val="199168640"/>
+        <c:axId val="205293136"/>
+        <c:axId val="205293696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199168080"/>
+        <c:axId val="205293136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5414,7 +5414,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199168640"/>
+        <c:crossAx val="205293696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5422,7 +5422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199168640"/>
+        <c:axId val="205293696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5432,7 +5432,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199168080"/>
+        <c:crossAx val="205293136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5751,11 +5751,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="199170880"/>
-        <c:axId val="199171440"/>
+        <c:axId val="205174288"/>
+        <c:axId val="205174848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199170880"/>
+        <c:axId val="205174288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5765,7 +5765,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199171440"/>
+        <c:crossAx val="205174848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5773,7 +5773,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199171440"/>
+        <c:axId val="205174848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5783,7 +5783,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199170880"/>
+        <c:crossAx val="205174288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5971,11 +5971,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="199173680"/>
-        <c:axId val="199174240"/>
+        <c:axId val="205177088"/>
+        <c:axId val="205177648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199173680"/>
+        <c:axId val="205177088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5985,7 +5985,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199174240"/>
+        <c:crossAx val="205177648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5993,7 +5993,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199174240"/>
+        <c:axId val="205177648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6003,7 +6003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199173680"/>
+        <c:crossAx val="205177088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6387,11 +6387,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="199973088"/>
-        <c:axId val="199973648"/>
+        <c:axId val="206096432"/>
+        <c:axId val="206096992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199973088"/>
+        <c:axId val="206096432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6401,7 +6401,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199973648"/>
+        <c:crossAx val="206096992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6409,7 +6409,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199973648"/>
+        <c:axId val="206096992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6419,7 +6419,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199973088"/>
+        <c:crossAx val="206096432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6693,11 +6693,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="199975888"/>
-        <c:axId val="199976448"/>
+        <c:axId val="206157824"/>
+        <c:axId val="206158384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199975888"/>
+        <c:axId val="206157824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6707,7 +6707,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199976448"/>
+        <c:crossAx val="206158384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6715,7 +6715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199976448"/>
+        <c:axId val="206158384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6725,7 +6725,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199975888"/>
+        <c:crossAx val="206157824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6999,11 +6999,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="199782416"/>
-        <c:axId val="199782976"/>
+        <c:axId val="205942864"/>
+        <c:axId val="205943424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199782416"/>
+        <c:axId val="205942864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7013,7 +7013,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199782976"/>
+        <c:crossAx val="205943424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7021,7 +7021,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199782976"/>
+        <c:axId val="205943424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7031,7 +7031,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199782416"/>
+        <c:crossAx val="205942864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7113,7 +7113,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Parent </a:t>
+              <a:t>Super </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7122,8 +7122,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18567496051541668"/>
-          <c:y val="2.2222087363911108E-2"/>
+          <c:x val="0.26892938695685425"/>
+          <c:y val="2.222207328434225E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -7305,11 +7305,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="199785216"/>
-        <c:axId val="199785776"/>
+        <c:axId val="205945664"/>
+        <c:axId val="205946224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199785216"/>
+        <c:axId val="205945664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7319,7 +7319,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199785776"/>
+        <c:crossAx val="205946224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7327,7 +7327,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199785776"/>
+        <c:axId val="205946224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7337,7 +7337,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199785216"/>
+        <c:crossAx val="205945664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7611,11 +7611,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="199788016"/>
-        <c:axId val="199788576"/>
+        <c:axId val="206280240"/>
+        <c:axId val="206280800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="199788016"/>
+        <c:axId val="206280240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7625,7 +7625,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199788576"/>
+        <c:crossAx val="206280800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7633,7 +7633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199788576"/>
+        <c:axId val="206280800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7643,7 +7643,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199788016"/>
+        <c:crossAx val="206280240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7923,11 +7923,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="197089024"/>
-        <c:axId val="197089584"/>
+        <c:axId val="203202144"/>
+        <c:axId val="203202704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197089024"/>
+        <c:axId val="203202144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7937,7 +7937,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197089584"/>
+        <c:crossAx val="203202704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7945,7 +7945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197089584"/>
+        <c:axId val="203202704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7955,7 +7955,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197089024"/>
+        <c:crossAx val="203202144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8232,11 +8232,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="200161936"/>
-        <c:axId val="200162496"/>
+        <c:axId val="206819264"/>
+        <c:axId val="206819824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200161936"/>
+        <c:axId val="206819264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8246,7 +8246,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200162496"/>
+        <c:crossAx val="206819824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8254,7 +8254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200162496"/>
+        <c:axId val="206819824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8264,7 +8264,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200161936"/>
+        <c:crossAx val="206819264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8538,11 +8538,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="200164736"/>
-        <c:axId val="200165296"/>
+        <c:axId val="206822064"/>
+        <c:axId val="206822624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200164736"/>
+        <c:axId val="206822064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8552,7 +8552,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200165296"/>
+        <c:crossAx val="206822624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8560,7 +8560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200165296"/>
+        <c:axId val="206822624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8570,7 +8570,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200164736"/>
+        <c:crossAx val="206822064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8749,11 +8749,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="200167536"/>
-        <c:axId val="200168096"/>
+        <c:axId val="206824864"/>
+        <c:axId val="206825424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200167536"/>
+        <c:axId val="206824864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8763,7 +8763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200168096"/>
+        <c:crossAx val="206825424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8771,7 +8771,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200168096"/>
+        <c:axId val="206825424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8781,7 +8781,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200167536"/>
+        <c:crossAx val="206824864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9168,11 +9168,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="200268992"/>
-        <c:axId val="200269552"/>
+        <c:axId val="206848496"/>
+        <c:axId val="206849056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200268992"/>
+        <c:axId val="206848496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9182,7 +9182,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200269552"/>
+        <c:crossAx val="206849056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9190,7 +9190,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200269552"/>
+        <c:axId val="206849056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9200,7 +9200,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200268992"/>
+        <c:crossAx val="206848496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9474,11 +9474,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="200557664"/>
-        <c:axId val="200558224"/>
+        <c:axId val="206962080"/>
+        <c:axId val="206962640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200557664"/>
+        <c:axId val="206962080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9488,7 +9488,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200558224"/>
+        <c:crossAx val="206962640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9496,7 +9496,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200558224"/>
+        <c:axId val="206962640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9506,7 +9506,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200557664"/>
+        <c:crossAx val="206962080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9588,7 +9588,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Parent</a:t>
+              <a:t>Super</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9597,8 +9597,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18567496051541668"/>
-          <c:y val="2.2222087363911108E-2"/>
+          <c:x val="0.25463875539626946"/>
+          <c:y val="2.2222102722852879E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9780,11 +9780,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="200560464"/>
-        <c:axId val="200561024"/>
+        <c:axId val="206964880"/>
+        <c:axId val="206965440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200560464"/>
+        <c:axId val="206964880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9794,7 +9794,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200561024"/>
+        <c:crossAx val="206965440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9802,7 +9802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200561024"/>
+        <c:axId val="206965440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9812,7 +9812,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200560464"/>
+        <c:crossAx val="206964880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10086,11 +10086,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="200563264"/>
-        <c:axId val="200563824"/>
+        <c:axId val="207107168"/>
+        <c:axId val="207107728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200563264"/>
+        <c:axId val="207107168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10100,7 +10100,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200563824"/>
+        <c:crossAx val="207107728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10108,7 +10108,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200563824"/>
+        <c:axId val="207107728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10118,7 +10118,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200563264"/>
+        <c:crossAx val="207107168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10392,11 +10392,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="200765136"/>
-        <c:axId val="200765696"/>
+        <c:axId val="207429616"/>
+        <c:axId val="207430176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200765136"/>
+        <c:axId val="207429616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10406,7 +10406,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200765696"/>
+        <c:crossAx val="207430176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10414,7 +10414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200765696"/>
+        <c:axId val="207430176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10424,7 +10424,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200765136"/>
+        <c:crossAx val="207429616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10698,11 +10698,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="200767936"/>
-        <c:axId val="200768496"/>
+        <c:axId val="207432416"/>
+        <c:axId val="207432976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200767936"/>
+        <c:axId val="207432416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10712,7 +10712,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200768496"/>
+        <c:crossAx val="207432976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10720,7 +10720,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200768496"/>
+        <c:axId val="207432976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10730,7 +10730,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200767936"/>
+        <c:crossAx val="207432416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11001,11 +11001,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="200770736"/>
-        <c:axId val="200771296"/>
+        <c:axId val="207435216"/>
+        <c:axId val="207435776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="200770736"/>
+        <c:axId val="207435216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11015,7 +11015,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200771296"/>
+        <c:crossAx val="207435776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11023,7 +11023,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="200771296"/>
+        <c:axId val="207435776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11033,7 +11033,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200770736"/>
+        <c:crossAx val="207435216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11349,11 +11349,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197091824"/>
-        <c:axId val="197092384"/>
+        <c:axId val="203456752"/>
+        <c:axId val="203457312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197091824"/>
+        <c:axId val="203456752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11363,7 +11363,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197092384"/>
+        <c:crossAx val="203457312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11371,7 +11371,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197092384"/>
+        <c:axId val="203457312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11381,7 +11381,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197091824"/>
+        <c:crossAx val="203456752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11563,11 +11563,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="201081600"/>
-        <c:axId val="201082160"/>
+        <c:axId val="207466016"/>
+        <c:axId val="207466576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201081600"/>
+        <c:axId val="207466016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11577,7 +11577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201082160"/>
+        <c:crossAx val="207466576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11585,7 +11585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201082160"/>
+        <c:axId val="207466576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11595,7 +11595,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201081600"/>
+        <c:crossAx val="207466016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11979,11 +11979,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="201281216"/>
-        <c:axId val="201281776"/>
+        <c:axId val="207468816"/>
+        <c:axId val="207469376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201281216"/>
+        <c:axId val="207468816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11993,7 +11993,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201281776"/>
+        <c:crossAx val="207469376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12001,7 +12001,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201281776"/>
+        <c:axId val="207469376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12011,7 +12011,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201281216"/>
+        <c:crossAx val="207468816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12285,11 +12285,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="201284016"/>
-        <c:axId val="201284576"/>
+        <c:axId val="207471616"/>
+        <c:axId val="207472176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201284016"/>
+        <c:axId val="207471616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12299,7 +12299,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201284576"/>
+        <c:crossAx val="207472176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12307,7 +12307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201284576"/>
+        <c:axId val="207472176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12317,7 +12317,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201284016"/>
+        <c:crossAx val="207471616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12591,11 +12591,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="201286816"/>
-        <c:axId val="201287376"/>
+        <c:axId val="207474416"/>
+        <c:axId val="207474976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201286816"/>
+        <c:axId val="207474416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12605,7 +12605,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201287376"/>
+        <c:crossAx val="207474976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12613,7 +12613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201287376"/>
+        <c:axId val="207474976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12623,7 +12623,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201286816"/>
+        <c:crossAx val="207474416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12705,7 +12705,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>Parent</a:t>
+              <a:t>Super</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -12714,8 +12714,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18567496051541668"/>
-          <c:y val="2.2222087363911108E-2"/>
+          <c:x val="0.24118503236634953"/>
+          <c:y val="2.2222222222222223E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -12897,11 +12897,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="201701136"/>
-        <c:axId val="201701696"/>
+        <c:axId val="207477216"/>
+        <c:axId val="207477776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201701136"/>
+        <c:axId val="207477216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12911,7 +12911,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201701696"/>
+        <c:crossAx val="207477776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12919,7 +12919,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201701696"/>
+        <c:axId val="207477776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12929,7 +12929,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201701136"/>
+        <c:crossAx val="207477216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13203,11 +13203,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="201703936"/>
-        <c:axId val="201704496"/>
+        <c:axId val="207480016"/>
+        <c:axId val="207480576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201703936"/>
+        <c:axId val="207480016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13217,7 +13217,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201704496"/>
+        <c:crossAx val="207480576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13225,7 +13225,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201704496"/>
+        <c:axId val="207480576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13235,7 +13235,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201703936"/>
+        <c:crossAx val="207480016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13509,11 +13509,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="201706736"/>
-        <c:axId val="201707296"/>
+        <c:axId val="208015472"/>
+        <c:axId val="208016032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201706736"/>
+        <c:axId val="208015472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13523,7 +13523,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201707296"/>
+        <c:crossAx val="208016032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13531,7 +13531,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201707296"/>
+        <c:axId val="208016032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13541,7 +13541,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201706736"/>
+        <c:crossAx val="208015472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13815,11 +13815,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="201709536"/>
-        <c:axId val="201710096"/>
+        <c:axId val="208018272"/>
+        <c:axId val="208018832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201709536"/>
+        <c:axId val="208018272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13829,7 +13829,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201710096"/>
+        <c:crossAx val="208018832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13837,7 +13837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201710096"/>
+        <c:axId val="208018832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13847,7 +13847,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201709536"/>
+        <c:crossAx val="208018272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14026,11 +14026,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="201712336"/>
-        <c:axId val="201712896"/>
+        <c:axId val="208021072"/>
+        <c:axId val="208021632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="201712336"/>
+        <c:axId val="208021072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14040,7 +14040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201712896"/>
+        <c:crossAx val="208021632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14048,7 +14048,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="201712896"/>
+        <c:axId val="208021632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14058,7 +14058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201712336"/>
+        <c:crossAx val="208021072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14487,11 +14487,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197860800"/>
-        <c:axId val="197861360"/>
+        <c:axId val="204247296"/>
+        <c:axId val="204247856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197860800"/>
+        <c:axId val="204247296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14501,7 +14501,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197861360"/>
+        <c:crossAx val="204247856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14509,7 +14509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197861360"/>
+        <c:axId val="204247856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14519,7 +14519,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197860800"/>
+        <c:crossAx val="204247296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14838,11 +14838,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197863600"/>
-        <c:axId val="197864160"/>
+        <c:axId val="204250096"/>
+        <c:axId val="204383424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197863600"/>
+        <c:axId val="204250096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14852,7 +14852,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197864160"/>
+        <c:crossAx val="204383424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14860,7 +14860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197864160"/>
+        <c:axId val="204383424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14870,7 +14870,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197863600"/>
+        <c:crossAx val="204250096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15189,11 +15189,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197866400"/>
-        <c:axId val="197866960"/>
+        <c:axId val="204385664"/>
+        <c:axId val="204386224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197866400"/>
+        <c:axId val="204385664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15203,7 +15203,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197866960"/>
+        <c:crossAx val="204386224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15211,7 +15211,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197866960"/>
+        <c:axId val="204386224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15221,7 +15221,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197866400"/>
+        <c:crossAx val="204385664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15409,11 +15409,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="197916272"/>
-        <c:axId val="197916832"/>
+        <c:axId val="204405024"/>
+        <c:axId val="204405584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197916272"/>
+        <c:axId val="204405024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15423,7 +15423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197916832"/>
+        <c:crossAx val="204405584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15431,7 +15431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197916832"/>
+        <c:axId val="204405584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15441,7 +15441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197916272"/>
+        <c:crossAx val="204405024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15870,11 +15870,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="197718016"/>
-        <c:axId val="197718576"/>
+        <c:axId val="204770720"/>
+        <c:axId val="204771280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197718016"/>
+        <c:axId val="204770720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15884,7 +15884,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197718576"/>
+        <c:crossAx val="204771280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15892,7 +15892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197718576"/>
+        <c:axId val="204771280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15902,7 +15902,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197718016"/>
+        <c:crossAx val="204770720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -30293,8 +30293,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="285750" y="1934699"/>
-          <a:ext cx="6987988" cy="1614204"/>
+          <a:off x="285750" y="1964452"/>
+          <a:ext cx="6984124" cy="1641253"/>
           <a:chOff x="0" y="1971678"/>
           <a:chExt cx="7010400" cy="1647822"/>
         </a:xfrm>
@@ -30449,8 +30449,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="133350" y="1853648"/>
-          <a:ext cx="7026217" cy="1673652"/>
+          <a:off x="133350" y="1840706"/>
+          <a:ext cx="6997746" cy="1660711"/>
           <a:chOff x="1857373" y="1847852"/>
           <a:chExt cx="7009652" cy="1648804"/>
         </a:xfrm>
@@ -30619,8 +30619,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="57150" y="1825068"/>
-          <a:ext cx="7027744" cy="1673647"/>
+          <a:off x="57150" y="1793651"/>
+          <a:ext cx="6984903" cy="1642230"/>
           <a:chOff x="381000" y="1809745"/>
           <a:chExt cx="7011179" cy="1648799"/>
         </a:xfrm>
@@ -50788,8 +50788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -50808,8 +50808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -50828,8 +50828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/fd-comapre_graph_beta.xlsx
+++ b/fd-comapre_graph_beta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,11 +512,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="203196544"/>
-        <c:axId val="203197104"/>
+        <c:axId val="-890617024"/>
+        <c:axId val="-890614848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203196544"/>
+        <c:axId val="-890617024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -526,7 +526,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203197104"/>
+        <c:crossAx val="-890614848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -534,7 +534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203197104"/>
+        <c:axId val="-890614848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +544,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203196544"/>
+        <c:crossAx val="-890617024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -863,11 +863,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="204773520"/>
-        <c:axId val="204774080"/>
+        <c:axId val="-671523824"/>
+        <c:axId val="-671516208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204773520"/>
+        <c:axId val="-671523824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,7 +877,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204774080"/>
+        <c:crossAx val="-671516208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -885,7 +885,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204774080"/>
+        <c:axId val="-671516208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,7 +895,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204773520"/>
+        <c:crossAx val="-671523824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1214,11 +1214,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="204776320"/>
-        <c:axId val="204776880"/>
+        <c:axId val="-671521648"/>
+        <c:axId val="-671519472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204776320"/>
+        <c:axId val="-671521648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1228,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204776880"/>
+        <c:crossAx val="-671519472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1236,7 +1236,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204776880"/>
+        <c:axId val="-671519472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1246,7 +1246,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204776320"/>
+        <c:crossAx val="-671521648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1565,11 +1565,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="204670864"/>
-        <c:axId val="204671424"/>
+        <c:axId val="-671518384"/>
+        <c:axId val="-671517840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204670864"/>
+        <c:axId val="-671518384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1579,7 +1579,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204671424"/>
+        <c:crossAx val="-671517840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1587,7 +1587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204671424"/>
+        <c:axId val="-671517840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1597,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204670864"/>
+        <c:crossAx val="-671518384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1916,11 +1916,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="204673664"/>
-        <c:axId val="204674224"/>
+        <c:axId val="-671527632"/>
+        <c:axId val="-671526544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204673664"/>
+        <c:axId val="-671527632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1930,7 +1930,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204674224"/>
+        <c:crossAx val="-671526544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1938,7 +1938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204674224"/>
+        <c:axId val="-671526544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,7 +1948,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204673664"/>
+        <c:crossAx val="-671527632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2267,11 +2267,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="204676464"/>
-        <c:axId val="204677024"/>
+        <c:axId val="-671522736"/>
+        <c:axId val="-671524912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204676464"/>
+        <c:axId val="-671522736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,7 +2281,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204677024"/>
+        <c:crossAx val="-671524912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2289,7 +2289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204677024"/>
+        <c:axId val="-671524912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,7 +2299,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204676464"/>
+        <c:crossAx val="-671522736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2615,11 +2615,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="204975552"/>
-        <c:axId val="204976112"/>
+        <c:axId val="-671524368"/>
+        <c:axId val="-671523280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204975552"/>
+        <c:axId val="-671524368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2629,7 +2629,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204976112"/>
+        <c:crossAx val="-671523280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2637,7 +2637,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204976112"/>
+        <c:axId val="-671523280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,7 +2647,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204975552"/>
+        <c:crossAx val="-671524368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2835,11 +2835,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="205409824"/>
-        <c:axId val="205410384"/>
+        <c:axId val="-669964592"/>
+        <c:axId val="-669950992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205409824"/>
+        <c:axId val="-669964592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2849,7 +2849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205410384"/>
+        <c:crossAx val="-669950992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2857,7 +2857,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205410384"/>
+        <c:axId val="-669950992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2867,7 +2867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205409824"/>
+        <c:crossAx val="-669964592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3293,11 +3293,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="205412624"/>
-        <c:axId val="205413184"/>
+        <c:axId val="-669965680"/>
+        <c:axId val="-669959696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205412624"/>
+        <c:axId val="-669965680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3307,7 +3307,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205413184"/>
+        <c:crossAx val="-669959696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3315,7 +3315,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205413184"/>
+        <c:axId val="-669959696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3325,7 +3325,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205412624"/>
+        <c:crossAx val="-669965680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3644,11 +3644,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="205415424"/>
-        <c:axId val="205415984"/>
+        <c:axId val="-669956432"/>
+        <c:axId val="-669958064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205415424"/>
+        <c:axId val="-669956432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3658,7 +3658,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205415984"/>
+        <c:crossAx val="-669958064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3666,7 +3666,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205415984"/>
+        <c:axId val="-669958064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3676,7 +3676,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205415424"/>
+        <c:crossAx val="-669956432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3995,11 +3995,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="205197872"/>
-        <c:axId val="205198432"/>
+        <c:axId val="-669965136"/>
+        <c:axId val="-669961872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205197872"/>
+        <c:axId val="-669965136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4009,7 +4009,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205198432"/>
+        <c:crossAx val="-669961872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4017,7 +4017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205198432"/>
+        <c:axId val="-669961872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4027,7 +4027,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205197872"/>
+        <c:crossAx val="-669965136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4300,6 +4300,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4347,11 +4348,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="203199344"/>
-        <c:axId val="203199904"/>
+        <c:axId val="-890605056"/>
+        <c:axId val="-890610496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203199344"/>
+        <c:axId val="-890605056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4361,7 +4362,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203199904"/>
+        <c:crossAx val="-890610496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4369,7 +4370,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203199904"/>
+        <c:axId val="-890610496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4379,7 +4380,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203199344"/>
+        <c:crossAx val="-890605056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4698,11 +4699,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="205200672"/>
-        <c:axId val="205201232"/>
+        <c:axId val="-669964048"/>
+        <c:axId val="-669952080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205200672"/>
+        <c:axId val="-669964048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4712,7 +4713,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205201232"/>
+        <c:crossAx val="-669952080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4720,7 +4721,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205201232"/>
+        <c:axId val="-669952080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4730,7 +4731,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205200672"/>
+        <c:crossAx val="-669964048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5049,11 +5050,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="205203472"/>
-        <c:axId val="205204032"/>
+        <c:axId val="-669955888"/>
+        <c:axId val="-669953168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205203472"/>
+        <c:axId val="-669955888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5063,7 +5064,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205204032"/>
+        <c:crossAx val="-669953168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5071,7 +5072,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205204032"/>
+        <c:axId val="-669953168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5081,7 +5082,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205203472"/>
+        <c:crossAx val="-669955888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5400,11 +5401,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="205293136"/>
-        <c:axId val="205293696"/>
+        <c:axId val="-669961328"/>
+        <c:axId val="-669951536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205293136"/>
+        <c:axId val="-669961328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5414,7 +5415,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205293696"/>
+        <c:crossAx val="-669951536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5422,7 +5423,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205293696"/>
+        <c:axId val="-669951536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5432,7 +5433,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205293136"/>
+        <c:crossAx val="-669961328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5751,11 +5752,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="205174288"/>
-        <c:axId val="205174848"/>
+        <c:axId val="-669150928"/>
+        <c:axId val="-669147120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205174288"/>
+        <c:axId val="-669150928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5765,7 +5766,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205174848"/>
+        <c:crossAx val="-669147120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5773,7 +5774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205174848"/>
+        <c:axId val="-669147120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5783,7 +5784,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205174288"/>
+        <c:crossAx val="-669150928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5971,11 +5972,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="205177088"/>
-        <c:axId val="205177648"/>
+        <c:axId val="-669154736"/>
+        <c:axId val="-669144944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205177088"/>
+        <c:axId val="-669154736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5985,7 +5986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205177648"/>
+        <c:crossAx val="-669144944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5993,7 +5994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205177648"/>
+        <c:axId val="-669144944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6003,7 +6004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205177088"/>
+        <c:crossAx val="-669154736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6387,11 +6388,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="206096432"/>
-        <c:axId val="206096992"/>
+        <c:axId val="-669148752"/>
+        <c:axId val="-669158000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206096432"/>
+        <c:axId val="-669148752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6401,7 +6402,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206096992"/>
+        <c:crossAx val="-669158000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6409,7 +6410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206096992"/>
+        <c:axId val="-669158000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6419,7 +6420,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206096432"/>
+        <c:crossAx val="-669148752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6693,11 +6694,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="206157824"/>
-        <c:axId val="206158384"/>
+        <c:axId val="-669151472"/>
+        <c:axId val="-669145488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206157824"/>
+        <c:axId val="-669151472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6707,7 +6708,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206158384"/>
+        <c:crossAx val="-669145488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6715,7 +6716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206158384"/>
+        <c:axId val="-669145488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6725,7 +6726,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206157824"/>
+        <c:crossAx val="-669151472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6999,11 +7000,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="205942864"/>
-        <c:axId val="205943424"/>
+        <c:axId val="-669150384"/>
+        <c:axId val="-669146032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205942864"/>
+        <c:axId val="-669150384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7013,7 +7014,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205943424"/>
+        <c:crossAx val="-669146032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7021,7 +7022,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205943424"/>
+        <c:axId val="-669146032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7031,7 +7032,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205942864"/>
+        <c:crossAx val="-669150384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7305,11 +7306,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="205945664"/>
-        <c:axId val="205946224"/>
+        <c:axId val="-669144400"/>
+        <c:axId val="-669157456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205945664"/>
+        <c:axId val="-669144400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7319,7 +7320,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205946224"/>
+        <c:crossAx val="-669157456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7327,7 +7328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="205946224"/>
+        <c:axId val="-669157456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7337,7 +7338,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205945664"/>
+        <c:crossAx val="-669144400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7611,11 +7612,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="206280240"/>
-        <c:axId val="206280800"/>
+        <c:axId val="-669158544"/>
+        <c:axId val="-669156912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206280240"/>
+        <c:axId val="-669158544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7625,7 +7626,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206280800"/>
+        <c:crossAx val="-669156912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7633,7 +7634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206280800"/>
+        <c:axId val="-669156912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7643,7 +7644,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206280240"/>
+        <c:crossAx val="-669158544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7730,6 +7731,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7877,6 +7879,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7923,11 +7926,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="-25"/>
-        <c:axId val="203202144"/>
-        <c:axId val="203202704"/>
+        <c:axId val="-1024276768"/>
+        <c:axId val="-1024275680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203202144"/>
+        <c:axId val="-1024276768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7937,7 +7940,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203202704"/>
+        <c:crossAx val="-1024275680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7945,7 +7948,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203202704"/>
+        <c:axId val="-1024275680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7955,7 +7958,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203202144"/>
+        <c:crossAx val="-1024276768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8232,11 +8235,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="206819264"/>
-        <c:axId val="206819824"/>
+        <c:axId val="-670943328"/>
+        <c:axId val="-670934080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206819264"/>
+        <c:axId val="-670943328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8246,7 +8249,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206819824"/>
+        <c:crossAx val="-670934080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8254,7 +8257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206819824"/>
+        <c:axId val="-670934080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8264,7 +8267,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206819264"/>
+        <c:crossAx val="-670943328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8538,11 +8541,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="206822064"/>
-        <c:axId val="206822624"/>
+        <c:axId val="-670935712"/>
+        <c:axId val="-670941152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206822064"/>
+        <c:axId val="-670935712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8552,7 +8555,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206822624"/>
+        <c:crossAx val="-670941152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8560,7 +8563,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206822624"/>
+        <c:axId val="-670941152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8570,7 +8573,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206822064"/>
+        <c:crossAx val="-670935712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8749,11 +8752,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="206824864"/>
-        <c:axId val="206825424"/>
+        <c:axId val="-670944416"/>
+        <c:axId val="-670931360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206824864"/>
+        <c:axId val="-670944416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8763,7 +8766,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206825424"/>
+        <c:crossAx val="-670931360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8771,7 +8774,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206825424"/>
+        <c:axId val="-670931360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8781,7 +8784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206824864"/>
+        <c:crossAx val="-670944416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9168,11 +9171,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="206848496"/>
-        <c:axId val="206849056"/>
+        <c:axId val="-670942240"/>
+        <c:axId val="-670935168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206848496"/>
+        <c:axId val="-670942240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9182,7 +9185,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206849056"/>
+        <c:crossAx val="-670935168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9190,7 +9193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206849056"/>
+        <c:axId val="-670935168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9200,7 +9203,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206848496"/>
+        <c:crossAx val="-670942240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9474,11 +9477,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="206962080"/>
-        <c:axId val="206962640"/>
+        <c:axId val="-670941696"/>
+        <c:axId val="-670940608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206962080"/>
+        <c:axId val="-670941696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9488,7 +9491,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206962640"/>
+        <c:crossAx val="-670940608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9496,7 +9499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206962640"/>
+        <c:axId val="-670940608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9506,7 +9509,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206962080"/>
+        <c:crossAx val="-670941696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9780,11 +9783,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="206964880"/>
-        <c:axId val="206965440"/>
+        <c:axId val="-670930272"/>
+        <c:axId val="-670943872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206964880"/>
+        <c:axId val="-670930272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9794,7 +9797,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206965440"/>
+        <c:crossAx val="-670943872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9802,7 +9805,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206965440"/>
+        <c:axId val="-670943872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9812,7 +9815,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206964880"/>
+        <c:crossAx val="-670930272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10086,11 +10089,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="207107168"/>
-        <c:axId val="207107728"/>
+        <c:axId val="-670934624"/>
+        <c:axId val="-670939520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207107168"/>
+        <c:axId val="-670934624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10100,7 +10103,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207107728"/>
+        <c:crossAx val="-670939520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10108,7 +10111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207107728"/>
+        <c:axId val="-670939520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10118,7 +10121,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207107168"/>
+        <c:crossAx val="-670934624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10392,11 +10395,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="207429616"/>
-        <c:axId val="207430176"/>
+        <c:axId val="-670936256"/>
+        <c:axId val="-668934848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207429616"/>
+        <c:axId val="-670936256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10406,7 +10409,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207430176"/>
+        <c:crossAx val="-668934848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10414,7 +10417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207430176"/>
+        <c:axId val="-668934848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10424,7 +10427,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207429616"/>
+        <c:crossAx val="-670936256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10698,11 +10701,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="207432416"/>
-        <c:axId val="207432976"/>
+        <c:axId val="-668958784"/>
+        <c:axId val="-668938656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207432416"/>
+        <c:axId val="-668958784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10712,7 +10715,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207432976"/>
+        <c:crossAx val="-668938656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10720,7 +10723,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207432976"/>
+        <c:axId val="-668938656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10730,7 +10733,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207432416"/>
+        <c:crossAx val="-668958784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11001,11 +11004,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="207435216"/>
-        <c:axId val="207435776"/>
+        <c:axId val="-668933760"/>
+        <c:axId val="-668954432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207435216"/>
+        <c:axId val="-668933760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11015,7 +11018,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207435776"/>
+        <c:crossAx val="-668954432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11023,7 +11026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207435776"/>
+        <c:axId val="-668954432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11033,7 +11036,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207435216"/>
+        <c:crossAx val="-668933760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11302,6 +11305,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11349,11 +11353,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="203456752"/>
-        <c:axId val="203457312"/>
+        <c:axId val="-1024264800"/>
+        <c:axId val="-1024274592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="203456752"/>
+        <c:axId val="-1024264800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11363,7 +11367,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203457312"/>
+        <c:crossAx val="-1024274592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11371,7 +11375,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203457312"/>
+        <c:axId val="-1024274592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11381,7 +11385,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203456752"/>
+        <c:crossAx val="-1024264800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11563,11 +11567,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="207466016"/>
-        <c:axId val="207466576"/>
+        <c:axId val="-668934304"/>
+        <c:axId val="-668929952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207466016"/>
+        <c:axId val="-668934304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11577,7 +11581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207466576"/>
+        <c:crossAx val="-668929952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11585,7 +11589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207466576"/>
+        <c:axId val="-668929952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11595,7 +11599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207466016"/>
+        <c:crossAx val="-668934304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11979,11 +11983,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="207468816"/>
-        <c:axId val="207469376"/>
+        <c:axId val="-668942464"/>
+        <c:axId val="-668935936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207468816"/>
+        <c:axId val="-668942464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11993,7 +11997,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207469376"/>
+        <c:crossAx val="-668935936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12001,7 +12005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207469376"/>
+        <c:axId val="-668935936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12011,7 +12015,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207468816"/>
+        <c:crossAx val="-668942464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12285,11 +12289,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="207471616"/>
-        <c:axId val="207472176"/>
+        <c:axId val="-668936480"/>
+        <c:axId val="-668931584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207471616"/>
+        <c:axId val="-668936480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12299,7 +12303,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207472176"/>
+        <c:crossAx val="-668931584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12307,7 +12311,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207472176"/>
+        <c:axId val="-668931584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12317,7 +12321,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207471616"/>
+        <c:crossAx val="-668936480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12591,11 +12595,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="207474416"/>
-        <c:axId val="207474976"/>
+        <c:axId val="-668926688"/>
+        <c:axId val="-668939200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207474416"/>
+        <c:axId val="-668926688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12605,7 +12609,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207474976"/>
+        <c:crossAx val="-668939200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12613,7 +12617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207474976"/>
+        <c:axId val="-668939200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12623,7 +12627,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207474416"/>
+        <c:crossAx val="-668926688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12897,11 +12901,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="207477216"/>
-        <c:axId val="207477776"/>
+        <c:axId val="-668952256"/>
+        <c:axId val="-668951712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207477216"/>
+        <c:axId val="-668952256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12911,7 +12915,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207477776"/>
+        <c:crossAx val="-668951712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12919,7 +12923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207477776"/>
+        <c:axId val="-668951712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12929,7 +12933,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207477216"/>
+        <c:crossAx val="-668952256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13203,11 +13207,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="207480016"/>
-        <c:axId val="207480576"/>
+        <c:axId val="-668940288"/>
+        <c:axId val="-668941920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207480016"/>
+        <c:axId val="-668940288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13217,7 +13221,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207480576"/>
+        <c:crossAx val="-668941920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13225,7 +13229,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207480576"/>
+        <c:axId val="-668941920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13235,7 +13239,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207480016"/>
+        <c:crossAx val="-668940288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13509,11 +13513,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="208015472"/>
-        <c:axId val="208016032"/>
+        <c:axId val="-668931040"/>
+        <c:axId val="-668941376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208015472"/>
+        <c:axId val="-668931040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13523,7 +13527,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208016032"/>
+        <c:crossAx val="-668941376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13531,7 +13535,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208016032"/>
+        <c:axId val="-668941376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13541,7 +13545,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208015472"/>
+        <c:crossAx val="-668931040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13815,11 +13819,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="25"/>
-        <c:axId val="208018272"/>
-        <c:axId val="208018832"/>
+        <c:axId val="-668939744"/>
+        <c:axId val="-668937024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208018272"/>
+        <c:axId val="-668939744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13829,7 +13833,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208018832"/>
+        <c:crossAx val="-668937024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13837,7 +13841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208018832"/>
+        <c:axId val="-668937024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13847,7 +13851,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208018272"/>
+        <c:crossAx val="-668939744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14026,11 +14030,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="208021072"/>
-        <c:axId val="208021632"/>
+        <c:axId val="-668935392"/>
+        <c:axId val="-668956064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="208021072"/>
+        <c:axId val="-668935392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14040,7 +14044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208021632"/>
+        <c:crossAx val="-668956064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14048,7 +14052,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208021632"/>
+        <c:axId val="-668956064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14058,7 +14062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208021072"/>
+        <c:crossAx val="-668935392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14440,6 +14444,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14487,11 +14492,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="204247296"/>
-        <c:axId val="204247856"/>
+        <c:axId val="-770743504"/>
+        <c:axId val="-770745136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204247296"/>
+        <c:axId val="-770743504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14501,7 +14506,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204247856"/>
+        <c:crossAx val="-770745136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14509,7 +14514,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204247856"/>
+        <c:axId val="-770745136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14519,7 +14524,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204247296"/>
+        <c:crossAx val="-770743504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14791,6 +14796,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14838,11 +14844,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="204250096"/>
-        <c:axId val="204383424"/>
+        <c:axId val="-770741328"/>
+        <c:axId val="-770740784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204250096"/>
+        <c:axId val="-770741328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14852,7 +14858,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204383424"/>
+        <c:crossAx val="-770740784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14860,7 +14866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204383424"/>
+        <c:axId val="-770740784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14870,7 +14876,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204250096"/>
+        <c:crossAx val="-770741328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15142,6 +15148,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -15189,11 +15196,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="204385664"/>
-        <c:axId val="204386224"/>
+        <c:axId val="-1024431376"/>
+        <c:axId val="-1024425392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204385664"/>
+        <c:axId val="-1024431376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15203,7 +15210,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204386224"/>
+        <c:crossAx val="-1024425392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15211,7 +15218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204386224"/>
+        <c:axId val="-1024425392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15221,7 +15228,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204385664"/>
+        <c:crossAx val="-1024431376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15409,11 +15416,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="204405024"/>
-        <c:axId val="204405584"/>
+        <c:axId val="-768036000"/>
+        <c:axId val="-801768096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204405024"/>
+        <c:axId val="-768036000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15423,7 +15430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204405584"/>
+        <c:crossAx val="-801768096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15431,7 +15438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204405584"/>
+        <c:axId val="-801768096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15441,7 +15448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204405024"/>
+        <c:crossAx val="-768036000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15870,11 +15877,11 @@
         </c:dLbls>
         <c:gapWidth val="80"/>
         <c:overlap val="25"/>
-        <c:axId val="204770720"/>
-        <c:axId val="204771280"/>
+        <c:axId val="-671525456"/>
+        <c:axId val="-671521104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="204770720"/>
+        <c:axId val="-671525456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15884,7 +15891,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204771280"/>
+        <c:crossAx val="-671521104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15892,7 +15899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="204771280"/>
+        <c:axId val="-671521104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15902,7 +15909,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204770720"/>
+        <c:crossAx val="-671525456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -29807,8 +29814,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1970360" y="21524416"/>
-          <a:ext cx="7195749" cy="1085126"/>
+          <a:off x="1965198" y="22292985"/>
+          <a:ext cx="7164782" cy="1121724"/>
           <a:chOff x="2008615" y="21015513"/>
           <a:chExt cx="10708381" cy="1589744"/>
         </a:xfrm>
@@ -29958,8 +29965,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2025744" y="23500999"/>
-          <a:ext cx="7156987" cy="1084346"/>
+          <a:off x="2020582" y="24336665"/>
+          <a:ext cx="7126020" cy="1120945"/>
           <a:chOff x="2024585" y="23130432"/>
           <a:chExt cx="10668957" cy="1589745"/>
         </a:xfrm>
@@ -30123,8 +30130,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2043390" y="25127454"/>
-          <a:ext cx="7184855" cy="1090706"/>
+          <a:off x="2038228" y="26024118"/>
+          <a:ext cx="7153888" cy="1127304"/>
           <a:chOff x="2063097" y="25593851"/>
           <a:chExt cx="7184855" cy="1090706"/>
         </a:xfrm>
@@ -43935,8 +43942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W117"/>
   <sheetViews>
-    <sheetView topLeftCell="D64" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K79" sqref="K79"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64:C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -50789,7 +50796,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -50828,7 +50835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
